--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>okay</t>
@@ -67,49 +79,55 @@
     <t>ok</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>paid</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>pool</t>
+    <t>half</t>
   </si>
   <si>
     <t>tiny</t>
@@ -118,120 +136,117 @@
     <t>piece</t>
   </si>
   <si>
-    <t>sound</t>
+    <t>light</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>worked</t>
   </si>
   <si>
     <t>air</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>challenge</t>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>classic</t>
   </si>
   <si>
     <t>elf</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>helicopter</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>helicopter</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -241,13 +256,25 @@
     <t>loved</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>grandchildren</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>challenging</t>
   </si>
   <si>
     <t>great</t>
@@ -256,31 +283,46 @@
     <t>wait</t>
   </si>
   <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>educational</t>
-  </si>
-  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>lots</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>recommend</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -641,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>0.9361702127659575</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +802,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9757281553398058</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C4">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D4">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -810,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.971830985915493</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.968421052631579</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.967741935483871</v>
+        <v>0.9757281553398058</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="D7">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>0.8867924528301887</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9565217391304348</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>0.8817204301075269</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1010,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9516129032258065</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>0.8769230769230769</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9259259259259259</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9140625</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C11">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9090909090909091</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K12">
-        <v>0.8701298701298701</v>
+        <v>0.828125</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,10 +1255,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K13">
-        <v>0.8278008298755186</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L13">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8947368421052632</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K14">
-        <v>0.8035714285714286</v>
+        <v>0.8091286307053942</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8852459016393442</v>
+        <v>0.90625</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K15">
-        <v>0.7905308464849354</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M15">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K16">
-        <v>0.7096774193548387</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.84375</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K17">
-        <v>0.691131498470948</v>
+        <v>0.6972477064220184</v>
       </c>
       <c r="L17">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K18">
-        <v>0.6909090909090909</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L18">
         <v>38</v>
@@ -1502,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1552,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.8157894736842105</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K19">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1602,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7951807228915663</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1620,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7914691943127962</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K21">
-        <v>0.5931091058244463</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L21">
-        <v>723</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>724</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>496</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,16 +1723,16 @@
         <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K22">
-        <v>0.5909090909090909</v>
+        <v>0.6341463414634146</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.78125</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L23">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,16 +1823,16 @@
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K24">
-        <v>0.4905660377358491</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7422680412371134</v>
+        <v>0.7590361445783133</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K25">
-        <v>0.4786324786324787</v>
+        <v>0.5570139458572601</v>
       </c>
       <c r="L25">
-        <v>56</v>
+        <v>679</v>
       </c>
       <c r="M25">
-        <v>56</v>
+        <v>680</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,13 +1902,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1878,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>0.4206128133704735</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="L26">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>208</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1952,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6857142857142857</v>
+        <v>0.7488151658767772</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.3114754098360656</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +2002,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6829268292682927</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K28">
-        <v>0.2833333333333333</v>
+        <v>0.5097493036211699</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="M28">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +2052,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,19 +2070,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K29">
-        <v>0.2498377676833225</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L29">
-        <v>385</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>385</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1156</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,13 +2102,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.65</v>
+        <v>0.734375</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2078,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K30">
-        <v>0.1770376862401402</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L30">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="M30">
-        <v>202</v>
+        <v>73</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>939</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,13 +2152,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.625</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2128,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K31">
-        <v>0.0763888888888889</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2152,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>266</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,13 +2202,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6237623762376238</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C32">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2178,21 +2220,45 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32">
+        <v>0.3583333333333333</v>
+      </c>
+      <c r="L32">
+        <v>43</v>
+      </c>
+      <c r="M32">
+        <v>43</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6111111111111112</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,21 +2270,45 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>63</v>
+      </c>
+      <c r="M33">
+        <v>63</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6071428571428571</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2230,21 +2320,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34">
+        <v>0.2818181818181818</v>
+      </c>
+      <c r="L34">
+        <v>434</v>
+      </c>
+      <c r="M34">
+        <v>435</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6057971014492753</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C35">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2256,21 +2370,45 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35">
+        <v>0.2402597402597403</v>
+      </c>
+      <c r="L35">
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6052631578947368</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2282,21 +2420,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36">
+        <v>0.2391304347826087</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.603448275862069</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2308,21 +2470,45 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37">
+        <v>0.2357581069237511</v>
+      </c>
+      <c r="L37">
+        <v>269</v>
+      </c>
+      <c r="M37">
+        <v>269</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5740740740740741</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C38">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2334,21 +2520,45 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <v>0.2213114754098361</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C39">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2360,21 +2570,45 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5506329113924051</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C40">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="D40">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2386,21 +2620,45 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40">
+        <v>0.0625</v>
+      </c>
+      <c r="L40">
+        <v>47</v>
+      </c>
+      <c r="M40">
+        <v>47</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2412,21 +2670,21 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4725274725274725</v>
+        <v>0.599009900990099</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2438,21 +2696,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4285714285714285</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2464,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3809523809523809</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2490,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3255813953488372</v>
+        <v>0.5126582278481012</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2516,21 +2774,21 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3146067415730337</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2542,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2789855072463768</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C47">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2568,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2051282051282051</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2594,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2602,13 +2860,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2025316455696203</v>
+        <v>0.3734177215189873</v>
       </c>
       <c r="C49">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2620,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>252</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,13 +2886,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1293375394321767</v>
+        <v>0.33</v>
       </c>
       <c r="C50">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D50">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2646,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>276</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2654,13 +2912,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1286549707602339</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="C51">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2672,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2680,13 +2938,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.06167400881057269</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2698,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>426</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2706,13 +2964,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.03560830860534125</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2724,7 +2982,137 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>650</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1695402298850575</v>
+      </c>
+      <c r="C54">
+        <v>59</v>
+      </c>
+      <c r="D54">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1277533039647577</v>
+      </c>
+      <c r="C55">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>58</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.09361069836552749</v>
+      </c>
+      <c r="C56">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56">
+        <v>0.98</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.08396946564885496</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.07255520504731862</v>
+      </c>
+      <c r="C58">
+        <v>23</v>
+      </c>
+      <c r="D58">
+        <v>23</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
